--- a/Remoção.xlsx
+++ b/Remoção.xlsx
@@ -96,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000000"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.000000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,8 +111,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,22 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +137,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,19 +173,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,28 +200,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,18 +212,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,7 +264,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +390,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,145 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,24 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -502,30 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +505,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,54 +522,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,97 +611,97 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -709,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4120,7 +4120,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:colOff>593725</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -4131,7 +4131,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13538200" y="142875"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4857750" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4149,10 +4149,10 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4161,7 +4161,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13528675" y="3057525"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4886325" cy="2771775"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4179,10 +4179,10 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4191,7 +4191,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13547725" y="5997575"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4886325" cy="2762250"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4210,7 +4210,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:colOff>593725</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -4221,7 +4221,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13538200" y="8874125"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4857750" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
